--- a/data/sentence.xlsx
+++ b/data/sentence.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44809.96066837963</v>
+        <v>44814.77682810185</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>44809.96221420139</v>
+        <v>44814.76734414352</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44809.96046599537</v>
+        <v>44814.7760153588</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>44809.96438907408</v>
+        <v>44814.77075734954</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44809.96388015046</v>
+        <v>44814.7702228125</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>44809.95914787037</v>
+        <v>44816.00728251157</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>44809.96325706018</v>
+        <v>44816.00867809028</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>44809.96445552084</v>
+        <v>44814.76977856481</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>44809.96539020833</v>
+        <v>44814.77070542824</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>44809.96356516203</v>
+        <v>44814.7746128125</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>44809.96502439815</v>
+        <v>44816.00769685186</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>44809.96778563657</v>
+        <v>44814.77207561343</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>44809.96644730324</v>
+        <v>44814.77248436343</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>44809.96803806529</v>
+        <v>44814.77724549769</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>44809.962886875</v>
+        <v>44814.77501091435</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>44809.96343094907</v>
+        <v>44816.00839300926</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>44809.96036642361</v>
+        <v>44816.00879736111</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>44809.96433440972</v>
+        <v>44814.77160474537</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>44809.96516199074</v>
+        <v>44814.77616778935</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>44809.96708282407</v>
+        <v>44816.00888778935</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>44809.96716247685</v>
+        <v>44814.77166428241</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>44809.96747380787</v>
+        <v>44814.77226959491</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>44809.96655972222</v>
+        <v>44814.77006715278</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>44809.95868418981</v>
+        <v>44816.00448315972</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>44809.95754172454</v>
+        <v>44814.77435706019</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>44809.96627965278</v>
+        <v>44814.96243638889</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>44809.96571232639</v>
+        <v>44814.77139508102</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44809.9676340625</v>
+        <v>44814.77274806713</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>44809.95084273148</v>
+        <v>44814.76999071759</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1245,11 +1245,1046 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>44809.95797041667</v>
+        <v>44814.76836144676</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>tangel_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>코를 돼지처럼 그려놨어</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>They just can't get my nose right!</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>44814.77115533565</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>tangel_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>너흰 그렇겠지 멋지게 그려 줬으니..</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Well, it's easy for you to say! You guys look amazing.</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>44814.77667180556</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>tangel_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>자, 날 올려줘 위에서 잡아줄께</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>All right, Okay, give me a boost, and I'll pull you up</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>44814.77288965278</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>tangel_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>가방 먼저 줘</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Give us the satchel first.</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>44816.00422657408</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>tangel_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>같이 고생한 게 얼만데 아직도 날 못믿어?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>I can't believe that after all we've been through together, you don't trust me?</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>44814.96343554398</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>tangel_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>미안! 손에 짐이 많아서..</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Sorry, my hands are full.</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>44811.00312993056</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>tangel_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>가방을 꼭 찾아야 한다!</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Retrieve that satchel at any cost!</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>44814.96381623843</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>tangel_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>넌 내꺼야</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Alone, at last</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>44814.77643712963</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>tangel_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>내가 옷장에 사람을 가둔거야!</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>I've got a person in my closet!</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>44814.77538738426</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>tangel_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>내가 나약하다고요, 엄마?</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Too weak to handel myself out there, huh, mother?</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>44814.77363428241</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>tangel_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>깜짝 선물이 있단다!</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>I have a big surprise</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>44814.7587378125</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>tangel_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>내 선물이 더 놀라울 걸?</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Oh I bet my surprise is bigger.</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>44814.96390042824</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>tangel_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>오 엄마, 저도 드릴 말씀 있어요</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Well mother, there's something I want to tell you.</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>44816.0040205787</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>tangel_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>엄마가 했던말 생각 해 봤는데
+[많이 생각해 봤다 전에 너가 했던말에 대하여]</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Okay, I've been thinking a lot about what you said, earlier.</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>44816.00758071759</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>tangel_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>그 얘긴 관뒀으면 좋겠다</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Because I really thought we dropped the issue, sweetheart</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>44814.76609010417</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>tangel_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>넌 네 앞가림 하긴 너무 약해</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Oh darling, I know you're not strong enough to handle yourself out there</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>44816.00548414352</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>tangel_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>라푼젤, 그 얘긴 그만 하자</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Rapunzel, We're done talking about this</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>44814.76664453703</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>tangel_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>불빛 얘긴 그만 해!
+넌 이 탑을 떠날 수 없어 영원히!</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Enough for the lights, Rapunzel! You are not leaving this tower, ever!</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>44816.00618868056</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>tangel_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>'별' 보여달라는 것보단 낫잖아요</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>I just thought it was a better idea than stars</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>44814.75894799769</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>tangel_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>너 혼자 있을 수 있겠니?</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>You sure You'll be all right on your own?</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>44816.00851835648</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>tangel_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>내 주머니 어딨어</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Where is my satchel?</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>44816.01733137731</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>tangel_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>감춰놨지, 절대 못 찾을 곳에</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>I've hidden it, somewhere you'll never find it.</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>44816.02475321759</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>tangel_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>저 항아리에?</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>it's in that pot, isnt it?</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>44816.02421196759</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>tangel_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>내 머릴 어쩌려는 거야? 잘라가려고?</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>So, What do you want, with my hair, to cut it?</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>44816.02448789352</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>tangel_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>아니야, 내가 원하는건 이 머리카락에서 벗어나는 거야, 진짜로!</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>No! Listen, the only thing I want to do with your hair, is to get out of it. Literally</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>44816.02268734953</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>tangel_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>당신 머리칼을 왜 노려? 
+[왜 지구에서 내가 너의 머리칼을 원해?]</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Why on earth would I want your hair?</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>44816.02372802083</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>tangel_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>그럼 그곳으로 날 안내해 줬다가 집으로 데려다 줘</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Take me to these lanterns, and return me home safely.</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>44816.02175428241</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>tangel_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>이 탑을 다 꺠부수고 박살내도</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>You can tear this tower apart, brick by brick</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>44816.0238262037</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>tangel_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>내 도움 없인 그 귀한 주머니 절대 못 찾아</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>But without my help, you will never find your precious satchel.</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>44816.02117099537</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>tangel_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>난 한번 약속하면 절대로 어기지 않아</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>I promise. And when I promise something, I never ever break that promise.</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>44816.02362364584</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>tangel_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>소용없어 아무것도 안 보여</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>It's no use. I can't see anything.</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>tangel_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>다 내탓이야. 엄마 말을 진작 들을걸..</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>This is all my fault. She was right</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>44816.03170714121</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>tangel_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>내 본명은 유진 피츠허버트야 말해주고 싶었어</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>My real name is Eugene Fitzherbert. Someone might as well know.</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>44816.03046299768</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>tangel_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>난 노랠 하면 머리에서 빛이 나</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>I have magic hair that glows when I sing.</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>44816.03134275463</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>tangel_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>살았어 살았다고!</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>I'm alive. I'm alive!</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>44816.03107152778</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>tangel_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>안믿었는데.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>I didn't see that coming.</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>tangel_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>진짜로 막 빛이나
+[진짜 그녀 머리에서 빛이나]</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Her hair actually glows.</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>tangel_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>왜 빛이 나지
+[왜 그녀 머리가 빛나지??]</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Why does her hair glow?</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>tangel_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>빛만 나는게 아니야</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>It doesn't just glow.</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>tangel_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>얘 왜 날 비웃지?</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Why is he smiling at me?</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>44816.03193355976</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>tangel_7</t>
         </is>
       </c>
     </row>

--- a/data/sentence.xlsx
+++ b/data/sentence.xlsx
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44814.77682810185</v>
+        <v>44819.07315161611</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>44814.76734414352</v>
+        <v>44819.06970559028</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44814.7760153588</v>
+        <v>44819.07041145834</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>44814.77075734954</v>
+        <v>44819.06632260417</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44814.7702228125</v>
+        <v>44819.06682421296</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>44814.76977856481</v>
+        <v>44819.06699638889</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>44814.77070542824</v>
+        <v>44819.06625775463</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>44814.7746128125</v>
+        <v>44819.07079549768</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>44814.77207561343</v>
+        <v>44819.06734587963</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>44814.77248436343</v>
+        <v>44819.06878981482</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>44814.77501091435</v>
+        <v>44819.07202746528</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>44814.77160474537</v>
+        <v>44819.06652668981</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>44814.77166428241</v>
+        <v>44819.07276395833</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>44814.77226959491</v>
+        <v>44819.06755841435</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>44814.77006715278</v>
+        <v>44819.0705294213</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>44814.77435706019</v>
+        <v>44819.07108883102</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>44814.77139508102</v>
+        <v>44819.0684062963</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44814.77274806713</v>
+        <v>44819.07004160879</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>44814.76999071759</v>
+        <v>44819.06910092592</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>44814.76836144676</v>
+        <v>44819.07252519676</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>44814.77667180556</v>
+        <v>44819.07270208334</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>44814.77288965278</v>
+        <v>44819.06985584491</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>44811.00312993056</v>
+        <v>44819.07030395833</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>44814.77643712963</v>
+        <v>44819.07241881944</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>44814.7587378125</v>
+        <v>44819.07225725694</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>44814.76609010417</v>
+        <v>44819.07063262731</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>44814.75894799769</v>
+        <v>44819.07216625</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2051,9 +2051,11 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>44819.06433684027</v>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>tangel_7</t>
@@ -2179,9 +2181,11 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>44819.06532777777</v>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>tangel_7</t>
@@ -2204,9 +2208,11 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>44819.06526017361</v>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>tangel_7</t>
@@ -2229,9 +2235,11 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>44819.06543195602</v>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>tangel_7</t>
@@ -2253,9 +2261,11 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>44819.06570006944</v>
+      </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>tangel_7</t>
@@ -2280,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>44816.03193355976</v>
+        <v>44816.03193356482</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>

--- a/data/sentence.xlsx
+++ b/data/sentence.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44819.07315161611</v>
+        <v>44819.07315162037</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>44816.00728251157</v>
+        <v>44819.72457209154</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>44816.00867809028</v>
+        <v>44819.7233509375</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>44816.00769685186</v>
+        <v>44819.7229025</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>44814.77724549769</v>
+        <v>44819.72030049768</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>44816.00839300926</v>
+        <v>44819.7230659838</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>44814.77616778935</v>
+        <v>44819.72197783564</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>44816.00448315972</v>
+        <v>44819.72402450231</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>44814.96243638889</v>
+        <v>44819.72225298611</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>44814.77363428241</v>
+        <v>44819.72208414352</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>44816.00758071759</v>
+        <v>44819.72327059028</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2295,6 +2295,268 @@
       <c r="F71" t="inlineStr">
         <is>
           <t>tangel_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>성 안에서 붙잡아 왕관을 뺏자고, 가자</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>We'll cut him off at the kingdom, and get back the crown. C'mon!</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>44819.71941164352</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>tangel_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>됐어 칼 집어 넣어 [ㅎㅎ 제발 그건 별로 필요하지 않아]</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Oh-ho, please, there's no need for that.</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>44819.71999530093</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>tangel_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>원하는 게 그것뿐이면 그만 가봐</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Well, if that's all you desire then, be on your way.</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>44819.71905247685</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>tangel_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>큰 부자로 만들어 줄랬더니….</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>I was going to offer you something worth one thousand crwons.</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>44819.71650388889</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>tangel_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(큰 부자로 만들어 줄랬더니….)
+또 뭐가 있는데? </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>What's the best part?</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>44819.71964224537</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>tangel_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>보너스로 플린에게 복수도 할 수 있지</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>It comes with revenge on Flynn Ryder.</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>44819.71566431713</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>tangel_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>부탁이야 겁먹지 마</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Please don’t' freak out!</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>44819.71917756944</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>tangel_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>언제부터 그랬어?</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>How long has it been doing that, exactly?</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>44819.71957395833</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>tangel_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>사람들이 내 머리칼을 탐내서 
+[엄마가 내가 어렸을때 사람들이 이걸(머리카락)을 자르려고 했대]</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Mother said when I was a baby people tried to cut it.</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>44819.715988125</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>tangel_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[하지만 그게 잘렸을때 ]갈색으로 변하고 마법을 잃어버린대</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>But , once it's cut, It turns brown, and loses its power.</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>44819.71239060185</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>tangel_8</t>
         </is>
       </c>
     </row>

--- a/data/sentence.xlsx
+++ b/data/sentence.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="252">
   <si>
     <t>key</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>part</t>
+  </si>
+  <si>
+    <t>Unnamed: 6</t>
   </si>
   <si>
     <t>옛날 옛적에, 하늘에서 한 방울의 햇빛이 떨어졌습니다.
@@ -707,43 +710,124 @@
     <t>And it's also my birthday, just so you know</t>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>그 위에 무슨 일 있니?
+[라푼젤, 무슨 일이야?]</t>
+  </si>
+  <si>
+    <t>Rapunzel, What's going on up there</t>
+  </si>
+  <si>
     <t>tangel_10</t>
+  </si>
+  <si>
+    <t>너 괜찮아?
+[괜찮니]</t>
+  </si>
+  <si>
+    <t>Are you all right</t>
+  </si>
+  <si>
+    <t>크게 말해 웅얼대면 짜증 난대도
+[오, 제발 큰소리로 말해라 라푼젤 내가 중얼거리는 걸 얼마나 싫어하는지 알잖아.]</t>
+  </si>
+  <si>
+    <t>Oh, please speak up Rapunzel you know how I hate the mumbling</t>
+  </si>
+  <si>
+    <t>내가 잃어버린 공주죠 맞죠?
+[난 잃어버린 공주야]</t>
+  </si>
+  <si>
+    <t>I'm the lost princess</t>
+  </si>
+  <si>
+    <t>지금도 웅얼댔나요, 엄마? 아니, 엄마도 아니지
+[제가 중얼거렸나요, 어머니? 아니면 그렇게 불러야 하나요?]</t>
+  </si>
+  <si>
+    <t>Did I mumble, mother? Or should I even call you that?</t>
+  </si>
+  <si>
+    <t>왜 그런 어이없는 걸 물어?
+[왜 그런 터무니없는 질문을 하세요?]</t>
+  </si>
+  <si>
+    <t>Why would you ask such a rediculous question?</t>
+  </si>
+  <si>
+    <t>내 마법이 이용당할까 봐 세상 사람을 피해 살았는데
+[난 내 힘을 위해 날 이용하는 사람들로부터 숨어서 살아왔어]</t>
+  </si>
+  <si>
+    <t>I've spent my entire life hiding from people who would use me for my power.</t>
+  </si>
+  <si>
+    <t>어디로 가게? 그녀석은 가고 없어
+[그는 네 곁에 없을 거야.]</t>
+  </si>
+  <si>
+    <t>He won’t be there for you</t>
+  </si>
+  <si>
+    <t>죄를 지었으니 처형을 당해야지
+[그 범죄자는 그의 죄로 교수형에 처해질 것이다.]</t>
+  </si>
+  <si>
+    <t>That criminal is to be hanged for his crimes</t>
+  </si>
+  <si>
+    <t>다시는 내 머리칼 이용해 먹을 생각 마
+[그리고 다시는 네가 내 머리를 쓰게 하지 않을 거야!]</t>
+  </si>
+  <si>
+    <t>And I will never let you use my hair again!</t>
+  </si>
+  <si>
+    <t>tangel_11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Rapunzel, What's going on up there</t>
+    <t>Stop fighting me</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Are you all right</t>
+    <t>For every minute of the rest of my life I'll fight</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Oh, please speak up Rapunzel you know how I hate the mumbling</t>
+    <t>I'll never stop trying to get away from you</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>I'm the lost princess</t>
+    <t>But, if you let me save him, I'll go with you.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Did I mumble, mother? Or should I even call you that?</t>
+    <t>I'll never run. I'll never try to escape</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Why would you ask such a rediculous question?</t>
+    <t>Just let me heal him, and you and I will be together</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>I've spent my entire life hiding from people who would use me for my power.</t>
+    <t>In case you get any ideas about following us.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>He won’t be there for you</t>
+    <t>Everything is gonna be okay, in a moment</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>That criminal is to be hanged for his crimes</t>
+    <t>I can't let you do this</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>What have you done? What have you done?!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -752,48 +836,82 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>And I will never let you use my hair again!</t>
+    <t>[</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>그 위에 무슨 일 있니?
-[라푼젤, 무슨 일이야?]</t>
-  </si>
-  <si>
-    <t>너 괜찮아?
-[괜찮니]</t>
-  </si>
-  <si>
-    <t>크게 말해 웅얼대면 짜증 난대도
-[오, 제발 큰소리로 말해라 라푼젤 내가 중얼거리는 걸 얼마나 싫어하는지 알잖아.]</t>
-  </si>
-  <si>
-    <t>내가 잃어버린 공주죠 맞죠?
-[난 잃어버린 공주야]</t>
-  </si>
-  <si>
-    <t>지금도 웅얼댔나요, 엄마? 아니, 엄마도 아니지
-[제가 중얼거렸나요, 어머니? 아니면 그렇게 불러야 하나요?]</t>
-  </si>
-  <si>
-    <t>왜 그런 어이없는 걸 물어?
-[왜 그런 터무니없는 질문을 하세요?]</t>
-  </si>
-  <si>
-    <t>내 마법이 이용당할까 봐 세상 사람을 피해 살았는데
-[난 내 힘을 위해 날 이용하는 사람들로부터 숨어서 살아왔어]</t>
-  </si>
-  <si>
-    <t>어디로 가게? 그녀석은 가고 없어
-[그는 네 곁에 없을 거야.]</t>
-  </si>
-  <si>
-    <t>죄를 지었으니 처형을 당해야지
-[그 범죄자는 그의 죄로 교수형에 처해질 것이다.]</t>
-  </si>
-  <si>
-    <t>다시는 내 머리칼 이용해 먹을 생각 마
-[그리고 다시는 네가 내 머리를 쓰게 하지 않을 거야!]</t>
+    <t>]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나랑 싸우지 마</t>
+  </si>
+  <si>
+    <t>내 남은 인생의 매 순간마다 난 싸울 거야</t>
+  </si>
+  <si>
+    <t>나는 너에게서 벗어나려는 노력을 멈추지 않을 거야.</t>
+  </si>
+  <si>
+    <t>하지만, 내가 그를 구하도록 허락한다면, 나는 너와 함께 갈 것이다.</t>
+  </si>
+  <si>
+    <t>난 절대 도망가지 않을 거야. 난 절대 도망치려고 하지 않을 거야.</t>
+  </si>
+  <si>
+    <t>내가 그를 치료하게 해줘. 그러면 너와 나는 함께할 거야.</t>
+  </si>
+  <si>
+    <t>우리를 따라오는 것에 대한 아이디어가 떠오를 경우를 대비해서요.</t>
+  </si>
+  <si>
+    <t>곧 모든 게 괜찮아질 거야</t>
+  </si>
+  <si>
+    <t>네가 이걸 하도록 놔둘 수 없어.</t>
+  </si>
+  <si>
+    <t>무슨 짓을 한 거야? 무슨 짓을 한 거야?!</t>
+  </si>
+  <si>
+    <t>그만해! 그만 좀 반항하라고!
+[나랑 싸우지 마]</t>
+  </si>
+  <si>
+    <t>죽을 때까지 당신과 싸울 거야
+[내 남은 인생의 매 순간마다 난 싸울 거야]</t>
+  </si>
+  <si>
+    <t>당신을 벗어나기 위해 싸울 거라고
+[나는 너에게서 벗어나려는 노력을 멈추지 않을 거야.]</t>
+  </si>
+  <si>
+    <t>하지만 플린을 치료하게 해주면 당신을 따라갈게
+[하지만, 내가 그를 구하도록 허락한다면, 나는 너와 함께 갈 것이다.]</t>
+  </si>
+  <si>
+    <t>절대로 달아나지 않을게
+[난 절대 도망가지 않을 거야. 난 절대 도망치려고 하지 않을 거야.]</t>
+  </si>
+  <si>
+    <t>플린만 치료하게 해줘 그럼 영원히 당신곁에 있을께
+[내가 그를 치료하게 해줘. 그러면 너와 나는 함께할 거야.]</t>
+  </si>
+  <si>
+    <t>혹시 네가 쫓아오면 곤란하잖아
+[우리를 따라오는 것에 대한 아이디어가 떠오를 경우를 대비해서요.]</t>
+  </si>
+  <si>
+    <t>미안해 하지만 걱정마
+[곧 모든 게 괜찮아질 거야]</t>
+  </si>
+  <si>
+    <t>이렇겐 못 보내
+[네가 이걸 하도록 놔둘 수 없어.]</t>
+  </si>
+  <si>
+    <t>무슨 짓을 한 거야?
+[무슨 짓을 한 거야? 무슨 짓을 한 거야?!]</t>
   </si>
 </sst>
 </file>
@@ -1172,19 +1290,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="182.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1203,16 +1317,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1221,18 +1338,18 @@
         <v>44823.052343553238</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1241,18 +1358,18 @@
         <v>44823.046337025473</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1261,18 +1378,18 @@
         <v>44823.051823032409</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1281,18 +1398,18 @@
         <v>44823.044199606476</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1301,18 +1418,18 @@
         <v>44823.046985011577</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1321,18 +1438,18 @@
         <v>44824.65492591435</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1341,18 +1458,18 @@
         <v>44824.655401261567</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1361,18 +1478,18 @@
         <v>44823.049689513893</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1381,18 +1498,18 @@
         <v>44823.047241423606</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1401,18 +1518,18 @@
         <v>44824.64506239583</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1421,38 +1538,38 @@
         <v>44824.651752997677</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44826.856315092591</v>
+      </c>
+      <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>44823.044935520833</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1461,18 +1578,18 @@
         <v>44823.052638402783</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1481,18 +1598,18 @@
         <v>44824.64830212963</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1501,7 +1618,7 @@
         <v>44824.650399062499</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -1509,10 +1626,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1521,7 +1638,7 @@
         <v>44824.655084375001</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -1529,19 +1646,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>44820.708187627322</v>
+        <v>44826.836782280086</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -1549,10 +1666,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1561,7 +1678,7 @@
         <v>44823.041575937503</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -1569,19 +1686,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>44819.721977835638</v>
+        <v>44826.837685555547</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -1589,10 +1706,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1601,7 +1718,7 @@
         <v>44824.658429409719</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -1609,10 +1726,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1621,7 +1738,7 @@
         <v>44824.649038888892</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -1629,19 +1746,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44826.857646157398</v>
+      </c>
+      <c r="F23" t="s">
         <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>44823.044576354157</v>
-      </c>
-      <c r="F23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -1649,10 +1766,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1661,7 +1778,7 @@
         <v>44824.645945150463</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -1669,19 +1786,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="2">
-        <v>44819.724024502313</v>
+        <v>44826.848849548609</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -1689,10 +1806,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1701,7 +1818,7 @@
         <v>44824.647595023147</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -1709,19 +1826,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>44819.72225298611</v>
+        <v>44826.834103333327</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -1729,10 +1846,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1741,7 +1858,7 @@
         <v>44823.048500381941</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -1749,10 +1866,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1761,7 +1878,7 @@
         <v>44823.050798379627</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -1769,10 +1886,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1781,7 +1898,7 @@
         <v>44823.049569745373</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -1789,19 +1906,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="2">
-        <v>44819.07252519676</v>
+        <v>44826.856448888888</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -1809,10 +1926,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1821,7 +1938,7 @@
         <v>44824.658541203702</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
@@ -1829,10 +1946,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1841,7 +1958,7 @@
         <v>44824.645197812497</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -1849,10 +1966,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1861,7 +1978,7 @@
         <v>44824.644293252313</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -1869,10 +1986,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1881,7 +1998,7 @@
         <v>44824.658362974536</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
@@ -1889,10 +2006,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1901,7 +2018,7 @@
         <v>44823.041785000001</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -1909,10 +2026,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1921,7 +2038,7 @@
         <v>44823.051632129631</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -1929,19 +2046,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" s="2">
-        <v>44820.708565092587</v>
+        <v>44826.838268032407</v>
       </c>
       <c r="F38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
@@ -1949,10 +2066,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1961,7 +2078,7 @@
         <v>44823.052231365742</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -1969,10 +2086,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1981,7 +2098,7 @@
         <v>44823.050023796299</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -1989,10 +2106,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2001,7 +2118,7 @@
         <v>44824.655904780091</v>
       </c>
       <c r="F41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -2009,10 +2126,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2021,7 +2138,7 @@
         <v>44824.646100636572</v>
       </c>
       <c r="F42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
@@ -2029,19 +2146,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>44826.857955312502</v>
+      </c>
+      <c r="F43" t="s">
         <v>93</v>
-      </c>
-      <c r="C43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
-        <v>44823.041271689814</v>
-      </c>
-      <c r="F43" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
@@ -2049,19 +2166,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" s="2">
-        <v>44820.702826608787</v>
+        <v>44826.840337835652</v>
       </c>
       <c r="F44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
@@ -2069,19 +2186,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" s="2">
-        <v>44819.723270590279</v>
+        <v>44826.840505046297</v>
       </c>
       <c r="F45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -2089,10 +2206,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2101,7 +2218,7 @@
         <v>44823.05248770833</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -2109,10 +2226,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2121,7 +2238,7 @@
         <v>44824.645666018521</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
@@ -2129,19 +2246,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" s="2">
-        <v>44820.703233449072</v>
+        <v>44826.841610162039</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
@@ -2149,19 +2266,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" s="2">
-        <v>44820.704969074082</v>
+        <v>44826.838902557873</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
@@ -2169,19 +2286,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" s="2">
-        <v>44819.07216625</v>
+        <v>44826.855973101847</v>
       </c>
       <c r="F50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
@@ -2189,19 +2306,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" s="2">
-        <v>44820.706194166669</v>
+        <v>44826.839240868052</v>
       </c>
       <c r="F51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -2209,19 +2326,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" s="2">
-        <v>44820.705483692131</v>
+        <v>44826.833841550928</v>
       </c>
       <c r="F52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
@@ -2229,10 +2346,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2241,7 +2358,7 @@
         <v>44816.024753217593</v>
       </c>
       <c r="F53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
@@ -2249,10 +2366,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2261,7 +2378,7 @@
         <v>44823.044133738433</v>
       </c>
       <c r="F54" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
@@ -2269,10 +2386,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2281,7 +2398,7 @@
         <v>44823.05104175926</v>
       </c>
       <c r="F55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
@@ -2289,10 +2406,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2301,7 +2418,7 @@
         <v>44823.048093773148</v>
       </c>
       <c r="F56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
@@ -2309,10 +2426,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2321,7 +2438,7 @@
         <v>44823.039990358797</v>
       </c>
       <c r="F57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
@@ -2329,19 +2446,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" s="2">
-        <v>44820.70846829861</v>
+        <v>44826.856155046298</v>
       </c>
       <c r="F58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
@@ -2349,19 +2466,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" s="2">
-        <v>44823.043854733798</v>
+        <v>44826.856562627312</v>
       </c>
       <c r="F59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
@@ -2369,10 +2486,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2381,7 +2498,7 @@
         <v>44823.049917928241</v>
       </c>
       <c r="F60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
@@ -2389,19 +2506,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" s="2">
-        <v>44823.040974953707</v>
+        <v>44826.849728773152</v>
       </c>
       <c r="F61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
@@ -2409,19 +2526,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" s="2">
-        <v>44823.040255277781</v>
+        <v>44826.857375243053</v>
       </c>
       <c r="F62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
@@ -2429,10 +2546,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2441,7 +2558,7 @@
         <v>44823.050157395832</v>
       </c>
       <c r="F63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
@@ -2449,19 +2566,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" s="2">
-        <v>44820.706857268517</v>
+        <v>44826.839339826387</v>
       </c>
       <c r="F64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
@@ -2469,19 +2586,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" s="2">
-        <v>44824.658807603017</v>
+        <v>44824.658807604173</v>
       </c>
       <c r="F65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
@@ -2489,19 +2606,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" s="2">
-        <v>44823.040142442129</v>
+        <v>44826.858169570529</v>
       </c>
       <c r="F66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
@@ -2509,10 +2626,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2521,7 +2638,7 @@
         <v>44824.653154594911</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
@@ -2529,19 +2646,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" s="2">
-        <v>44823.044332500001</v>
+        <v>44826.856261620371</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -2549,10 +2666,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -2561,7 +2678,7 @@
         <v>44823.047054120369</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -2569,10 +2686,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2581,7 +2698,7 @@
         <v>44824.650240740739</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
@@ -2589,19 +2706,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" s="2">
-        <v>44823.039583391197</v>
+        <v>44826.855839583332</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -2609,19 +2726,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" s="2">
-        <v>44819.71941164352</v>
+        <v>44826.857507986111</v>
       </c>
       <c r="F72" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
@@ -2629,10 +2746,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2641,7 +2758,7 @@
         <v>44824.658082187503</v>
       </c>
       <c r="F73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
@@ -2649,10 +2766,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2661,7 +2778,7 @@
         <v>44824.654098472223</v>
       </c>
       <c r="F74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -2669,10 +2786,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -2681,7 +2798,7 @@
         <v>44819.716503888892</v>
       </c>
       <c r="F75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
@@ -2689,10 +2806,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -2701,7 +2818,7 @@
         <v>44824.655966331018</v>
       </c>
       <c r="F76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
@@ -2709,10 +2826,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2721,7 +2838,7 @@
         <v>44824.645405706018</v>
       </c>
       <c r="F77" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -2729,10 +2846,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2741,7 +2858,7 @@
         <v>44824.652557847221</v>
       </c>
       <c r="F78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
@@ -2749,10 +2866,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C79" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2761,7 +2878,7 @@
         <v>44824.658650925929</v>
       </c>
       <c r="F79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
@@ -2769,10 +2886,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -2781,7 +2898,7 @@
         <v>44824.650538344897</v>
       </c>
       <c r="F80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
@@ -2789,10 +2906,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2801,7 +2918,7 @@
         <v>44824.657178148147</v>
       </c>
       <c r="F81" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
@@ -2809,10 +2926,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -2821,7 +2938,7 @@
         <v>44823.033099270833</v>
       </c>
       <c r="F82" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
@@ -2829,19 +2946,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" t="s">
+        <v>179</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2">
+        <v>44826.857132442128</v>
+      </c>
+      <c r="F83" t="s">
         <v>177</v>
-      </c>
-      <c r="C83" t="s">
-        <v>178</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83" s="2">
-        <v>44823.036317997678</v>
-      </c>
-      <c r="F83" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
@@ -2849,19 +2966,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" s="2">
-        <v>44823.034833078702</v>
+        <v>44826.839690821762</v>
       </c>
       <c r="F84" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
@@ -2869,19 +2986,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" s="2">
-        <v>44823.032013750002</v>
+        <v>44826.838707951392</v>
       </c>
       <c r="F85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
@@ -2889,19 +3006,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" s="2">
-        <v>44823.034401319448</v>
+        <v>44826.838371990743</v>
       </c>
       <c r="F86" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
@@ -2909,19 +3026,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" s="2">
-        <v>44823.034284201392</v>
+        <v>44826.857906400473</v>
       </c>
       <c r="F87" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.4">
@@ -2929,19 +3046,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" s="2">
-        <v>44823.036501284732</v>
+        <v>44826.848463402777</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.4">
@@ -2949,19 +3066,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" s="2">
-        <v>44823.036616064812</v>
+        <v>44826.8496084375</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.4">
@@ -2969,10 +3086,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C90" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2981,18 +3098,18 @@
         <v>44823.034666111111</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C91" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -3001,190 +3118,489 @@
         <v>44823.031296354173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
-      </c>
-      <c r="G91" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G91" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2">
+        <v>44826.79264806713</v>
+      </c>
+      <c r="F92" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>200</v>
+      </c>
+      <c r="C93" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2">
+        <v>44826.792129675923</v>
+      </c>
+      <c r="F93" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" t="s">
+        <v>203</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" s="2">
+        <v>44826.793343819438</v>
+      </c>
+      <c r="F94" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A92">
-        <f>A91+1</f>
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" s="2">
+        <v>44826.793227060189</v>
+      </c>
+      <c r="F95" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" t="s">
         <v>207</v>
       </c>
-      <c r="C92" t="s">
-        <v>196</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="F92" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A93">
-        <f t="shared" ref="A93:A101" si="0">A92+1</f>
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2">
+        <v>44826.833054953713</v>
+      </c>
+      <c r="F96" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
         <v>208</v>
       </c>
-      <c r="C93" t="s">
-        <v>197</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="F93" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A94">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="C97" t="s">
         <v>209</v>
       </c>
-      <c r="C94" t="s">
-        <v>198</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="F94" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A95">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" s="2">
+        <v>44826.797683784724</v>
+      </c>
+      <c r="F97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
         <v>210</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C98" t="s">
+        <v>211</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" s="2">
+        <v>44826.833280486113</v>
+      </c>
+      <c r="F98" t="s">
         <v>199</v>
       </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="F95" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A96">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>211</v>
-      </c>
-      <c r="C96" t="s">
-        <v>200</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="F96" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A97">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
         <v>212</v>
       </c>
-      <c r="C97" t="s">
-        <v>201</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="F97" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A98">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="C99" t="s">
         <v>213</v>
       </c>
-      <c r="C98" t="s">
-        <v>202</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="F98" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A99">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" s="2">
+        <v>44826.800756400473</v>
+      </c>
+      <c r="F99" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
         <v>214</v>
       </c>
-      <c r="C99" t="s">
-        <v>203</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="F99" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>215</v>
       </c>
-      <c r="C100" t="s">
-        <v>204</v>
-      </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E100" s="2">
+        <v>44826.83350818287</v>
       </c>
       <c r="F100" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A101">
-        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>216</v>
       </c>
       <c r="C101" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" s="2">
+        <v>44826.797399606483</v>
+      </c>
+      <c r="F101" t="s">
+        <v>199</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H101" t="s">
+        <v>230</v>
+      </c>
+      <c r="I101" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <f>A101+1</f>
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>242</v>
+      </c>
+      <c r="C102" t="s">
+        <v>219</v>
+      </c>
+      <c r="D102">
         <v>0</v>
       </c>
-      <c r="F101" t="s">
-        <v>195</v>
+      <c r="F102" t="s">
+        <v>218</v>
+      </c>
+      <c r="G102" t="s">
+        <v>232</v>
+      </c>
+      <c r="H102" t="str">
+        <f>B102&amp;$G$101&amp;$H$101&amp;G102&amp;$I$101</f>
+        <v>그만해! 그만 좀 반항하라고!
+[나랑 싸우지 마]
+[나랑 싸우지 마]</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <f t="shared" ref="A103:A111" si="0">A102+1</f>
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>243</v>
+      </c>
+      <c r="C103" t="s">
+        <v>220</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>218</v>
+      </c>
+      <c r="G103" t="s">
+        <v>233</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" ref="H103:H111" si="1">B103&amp;$G$101&amp;$H$101&amp;G103&amp;$I$101</f>
+        <v>죽을 때까지 당신과 싸울 거야
+[내 남은 인생의 매 순간마다 난 싸울 거야]
+[내 남은 인생의 매 순간마다 난 싸울 거야]</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>244</v>
+      </c>
+      <c r="C104" t="s">
+        <v>221</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>218</v>
+      </c>
+      <c r="G104" t="s">
+        <v>234</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="1"/>
+        <v>당신을 벗어나기 위해 싸울 거라고
+[나는 너에게서 벗어나려는 노력을 멈추지 않을 거야.]
+[나는 너에게서 벗어나려는 노력을 멈추지 않을 거야.]</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>245</v>
+      </c>
+      <c r="C105" t="s">
+        <v>222</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="F105" t="s">
+        <v>218</v>
+      </c>
+      <c r="G105" t="s">
+        <v>235</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="1"/>
+        <v>하지만 플린을 치료하게 해주면 당신을 따라갈게
+[하지만, 내가 그를 구하도록 허락한다면, 나는 너와 함께 갈 것이다.]
+[하지만, 내가 그를 구하도록 허락한다면, 나는 너와 함께 갈 것이다.]</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>246</v>
+      </c>
+      <c r="C106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>218</v>
+      </c>
+      <c r="G106" t="s">
+        <v>236</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="1"/>
+        <v>절대로 달아나지 않을게
+[난 절대 도망가지 않을 거야. 난 절대 도망치려고 하지 않을 거야.]
+[난 절대 도망가지 않을 거야. 난 절대 도망치려고 하지 않을 거야.]</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>247</v>
+      </c>
+      <c r="C107" t="s">
+        <v>224</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>218</v>
+      </c>
+      <c r="G107" t="s">
+        <v>237</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="1"/>
+        <v>플린만 치료하게 해줘 그럼 영원히 당신곁에 있을께
+[내가 그를 치료하게 해줘. 그러면 너와 나는 함께할 거야.]
+[내가 그를 치료하게 해줘. 그러면 너와 나는 함께할 거야.]</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>248</v>
+      </c>
+      <c r="C108" t="s">
+        <v>225</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>218</v>
+      </c>
+      <c r="G108" t="s">
+        <v>238</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="1"/>
+        <v>혹시 네가 쫓아오면 곤란하잖아
+[우리를 따라오는 것에 대한 아이디어가 떠오를 경우를 대비해서요.]
+[우리를 따라오는 것에 대한 아이디어가 떠오를 경우를 대비해서요.]</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>249</v>
+      </c>
+      <c r="C109" t="s">
+        <v>226</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>218</v>
+      </c>
+      <c r="G109" t="s">
+        <v>239</v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="1"/>
+        <v>미안해 하지만 걱정마
+[곧 모든 게 괜찮아질 거야]
+[곧 모든 게 괜찮아질 거야]</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>250</v>
+      </c>
+      <c r="C110" t="s">
+        <v>227</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>218</v>
+      </c>
+      <c r="G110" t="s">
+        <v>240</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="1"/>
+        <v>이렇겐 못 보내
+[네가 이걸 하도록 놔둘 수 없어.]
+[네가 이걸 하도록 놔둘 수 없어.]</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>251</v>
+      </c>
+      <c r="C111" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>218</v>
+      </c>
+      <c r="G111" t="s">
+        <v>241</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="1"/>
+        <v>무슨 짓을 한 거야?
+[무슨 짓을 한 거야? 무슨 짓을 한 거야?!]
+[무슨 짓을 한 거야? 무슨 짓을 한 거야?!]</v>
       </c>
     </row>
   </sheetData>

--- a/data/sentence.xlsx
+++ b/data/sentence.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>44823.04633702547</v>
+        <v>44844.76965959491</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44827.76144364583</v>
+        <v>44844.83561008102</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>44827.75789586805</v>
+        <v>44844.83495538194</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>44823.04724142361</v>
+        <v>44844.77333452546</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>44824.64506239583</v>
+        <v>44844.77070377315</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>44826.85631509259</v>
+        <v>44844.7803833912</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>44824.655084375</v>
+        <v>44844.77354201389</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>44826.83678228009</v>
+        <v>44844.77345179398</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>44826.8576461574</v>
+        <v>44844.82119972222</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>44826.84884954861</v>
+        <v>44844.78163292824</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>44826.83410333333</v>
+        <v>44844.80394146991</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>44826.85644888889</v>
+        <v>44844.82685549768</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>44830.77858189647</v>
+        <v>44830.77858189815</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>44826.83826803241</v>
+        <v>44844.82576273148</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>44826.8579553125</v>
+        <v>44844.82852371528</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>44826.84033783565</v>
+        <v>44844.82908050926</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>44826.8405050463</v>
+        <v>44844.83249679398</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>44826.83890255787</v>
+        <v>44844.77856605324</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>44826.85597310185</v>
+        <v>44844.77778479167</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>44826.83924086805</v>
+        <v>44844.82916106482</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>44827.75851872685</v>
+        <v>44844.83259344907</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>44823.05104175926</v>
+        <v>44844.76793635417</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>44827.75841870371</v>
+        <v>44844.82869263889</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>44826.8561550463</v>
+        <v>44844.79723451389</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>44823.04991792824</v>
+        <v>44844.81070938658</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>44826.84972877315</v>
+        <v>44844.79402392361</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>44826.85737524305</v>
+        <v>44844.79416642361</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>44826.83933982639</v>
+        <v>44844.77262538194</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>44826.85816957176</v>
+        <v>44844.80398449074</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>44824.65315459491</v>
+        <v>44844.77116351852</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>44827.75955408565</v>
+        <v>44844.83264717593</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>44826.85583958333</v>
+        <v>44844.80362780092</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>44826.85750798611</v>
+        <v>44844.83548678241</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>44824.6580821875</v>
+        <v>44844.82676074074</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>44826.85713244213</v>
+        <v>44844.80407037037</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>44826.83969082176</v>
+        <v>44844.77745317129</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>44826.83870795139</v>
+        <v>44844.79814195602</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>44826.83837199074</v>
+        <v>44844.79907678241</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>44826.85790640047</v>
+        <v>44844.83490446759</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>44826.84846340278</v>
+        <v>44844.77707355324</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>44826.8496084375</v>
+        <v>44844.77985939815</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>44826.79264806713</v>
+        <v>44844.77016797454</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>44826.79334381944</v>
+        <v>44844.80621981482</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>44826.83305495371</v>
+        <v>44844.77455603009</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>44826.79768378472</v>
+        <v>44844.80108430555</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44826.83328048611</v>
+        <v>44844.83616904904</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>44826.80075640047</v>
+        <v>44844.79886037037</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>44826.83350818287</v>
+        <v>44844.77286246528</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>44826.79739960648</v>
+        <v>44844.82894560185</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>44827.731504375</v>
+        <v>44844.83463002315</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>44827.73593601852</v>
+        <v>44844.83054753472</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>44827.73317847222</v>
+        <v>44844.83522643519</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44827.73502556713</v>
+        <v>44844.83475425926</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>44827.73534579861</v>
+        <v>44844.83307723379</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>44827.75739119213</v>
+        <v>44844.83503821759</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3717,6 +3717,706 @@
       <c r="F121" t="inlineStr">
         <is>
           <t>tangel_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>그렇게 해서 여자애들이 결국 죽는다
+[그게 여자애들이 결국 죽는 방법이야]</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>That's how girls end up dead</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>외국인이랑 우연히 말을 했는데 말을 못 했거든. 그때 배우기로 결심했지
+[요전 날 우연히 외국인과 대화를 나누었는데, 아무 말도 할 수가 없었어요. 그때 나는 영어를 배우기로 결심했다.]</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>The other day, I happened to have a conversation with a foreginer, but I wasmn't able say anything at all. That's when I decided to learn English.</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>학원에 오면 공부를 하지 말고 말을 더 해 독해 말고 그래야 회화가 늘지
+[그냥 읽는 게 아니라 학원이 있는 곳에서 영어를 더 많이 해야 할 것 같아. 그래야 영어 실력이 향상될 거야.]</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>I think you should try to speak english more where you're at the academy, not just read. That's how your english will imporve.</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>이번달에는 저축 좀 하나 했는데 뭐 또 다 써버렸지
+[이번 달에 돈을 좀 모을 수 있을 줄 알았는데, 결국 돈을 다 써버렸어.]</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>I thought I could save some money this month, but I ended up spending all my money</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>널 좀 봐, 너 완전 홀딱 젖었어. 그것은 정말 형편없다, 너가 그런사람이다 (누구) 이것을 하기를 원했다
+[널 좀 봐. 흠뻑 젖었군요. 그건 너무 시시해! 네가 하고 싶었던 거야]</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>look at you. You're soaked. That is so lame! You're the on who wanted to do it</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>비 쫄딱 맞았네, 다 젖엇다니까. 뉴스 봤으면 우산 챙겼을 텐데
+[비를 맞았어요. 흠뻑 젖었어요. 내가 그 뉴스를 봤더라면. 난 우산을 가져갔을 거야]</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>I got rained on. I got totally soaked. If I had seen the news. I would've taken an umbrella</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>매일 퇴근하고 운동 갈 거라고 한 사람은 너였던거 같은데
+[퇴근 후에 운동하러 갈 사람은 너였어.]</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>You were the one who was going to go to work out after work</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>동생이 게임 중독이 됐는데, 혼낼 수 없어. 내가 게임기를 사줬거든
+[내 남동생은 게임을 좋아했지만, 나는 그것에 대해 그에게 소리지를 수 없다. 그를 위해 그것을 산 사람은 나였다.]</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>My brother has gotten into playing games, but I can't yell at him about it. I was the one who bought it for him</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>우리 동네에 있는 소방관들은 아주 섹시한 것으로 소문났다. 내가 그것에 분노하냐고?
+[우리 마을의 소방관들은 덥기로 유명하다. 내가 그걸 원망해?]</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>the firemen in our town have a reputation for being hot. Do I resent that?</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>그 사람 평판이 그렇게 좋지는 않더라고 . 너무 믿지는 마 그사람이 하는 말
+[그 사람 평판이 생각보다 좋지 않아요. 그를 너무 믿지 마세요.]</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>You know, his reputation isn't as good as I thought. Don't belive him too much.</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>너 오늘따라 왜 친절 한 거야? 너 나한테 잘못한거 있는 거 맞구나
+[왜 나한테 그렇게 잘해 주는 거야? 야, 너 나한테 잘못한 게 틀림없어!]</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Why are you being so nice to me? Hey, you must've done something wrong to me!</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>왜 나만 매일 야근을 해야 하는지 화가 난다니까?
+[매일 밤 늦게까지 일한다는 사실이 원망스러울 수밖에 없다.]</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>I can't help but resent the fact that I've been working late every night.</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>그렇게 해야 ~하다
+[그렇게]</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>That's how</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>결국 ~이 되다
+[결국 ~하게 되다]</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>End up</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>죽은, 완전, 진짜로
+[죽었어]</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Dead</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>보다 Vs 찾다
+[보기 vs 찾기]</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Look at Vs Look for</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>습하다, 촉촉하다 젖었다, 홀딱젖엇다
+[습기/습기/습기/습기/습기]</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>humid / Moisture / Wet / Soak</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>형편없는, 구리다
+[살집이 좋은]</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>leam</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>사람을 강조하는것 너
+[바로 너야]</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>You're the one</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>평판, 이미지
+[명성.]</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Reputation</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>분노를 하다, 부들부들
+[원망]</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Resent</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>저번에
+[요전날]</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>The other day</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>비맞았다
+[비를 맞았다.]</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>I got rained on</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>화내다
+[야단법석을 떨다]</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>yell it</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>나 혼났다 선생님께
+[선생님한테 혼났어요.]</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>I got yelled at by my teacher</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>그 상태인것 VS 변한것
+[맞으면 맞으면 맞바꾸다]</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>be Vs get</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>존재한다고 믿는다
+[을 믿다]</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>believe in</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>잘될거라고 믿는다
+[난 널 믿어]</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>I believe in you</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
         </is>
       </c>
     </row>

--- a/data/sentence.xlsx
+++ b/data/sentence.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44827.75923797454</v>
+        <v>44845.73909671296</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44827.76125009259</v>
+        <v>44845.73617125</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>44830.77088932871</v>
+        <v>44853.74617096065</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>44830.76746013889</v>
+        <v>44845.74236185185</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44827.75912365741</v>
+        <v>44845.73402759259</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>44830.76312037037</v>
+        <v>44845.73942315972</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>44830.76246701389</v>
+        <v>44845.73714429398</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>44826.84161016204</v>
+        <v>44845.74063892361</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>44827.75977920139</v>
+        <v>44845.73197569444</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>44826.85656262731</v>
+        <v>44845.73387101852</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>44830.76237118056</v>
+        <v>44845.73819935185</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>44826.85626162037</v>
+        <v>44845.73252490741</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44844.83616904904</v>
+        <v>44844.83616905093</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>44827.73583274306</v>
+        <v>44845.73992208333</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>44827.75720708333</v>
+        <v>44845.73924864583</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>44830.76169517361</v>
+        <v>44845.73706788194</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>44830.7597950463</v>
+        <v>44845.74444047454</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3736,9 +3736,11 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>44846.76113857639</v>
+      </c>
       <c r="F122" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -3761,9 +3763,11 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>44845.75041094908</v>
+      </c>
       <c r="F123" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -3786,9 +3790,11 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>44853.75845699074</v>
+      </c>
       <c r="F124" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -3811,9 +3817,11 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>44846.76131068287</v>
+      </c>
       <c r="F125" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -3836,9 +3844,11 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>44846.76620194445</v>
+      </c>
       <c r="F126" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -3861,9 +3871,11 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>44853.75034</v>
+      </c>
       <c r="F127" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -3886,9 +3898,11 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>44846.75669666666</v>
+      </c>
       <c r="F128" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -3911,9 +3925,11 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>44846.76202476852</v>
+      </c>
       <c r="F129" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -3936,9 +3952,11 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
-      </c>
-      <c r="E130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>44846.76157887732</v>
+      </c>
       <c r="F130" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -3961,9 +3979,11 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>44846.76094910879</v>
+      </c>
       <c r="F131" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -3986,9 +4006,11 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>44846.76921730324</v>
+      </c>
       <c r="F132" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -4011,9 +4033,11 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>44853.7633077662</v>
+      </c>
       <c r="F133" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -4036,9 +4060,11 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
-      </c>
-      <c r="E134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>44846.76463553241</v>
+      </c>
       <c r="F134" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -4061,9 +4087,11 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
-      </c>
-      <c r="E135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>44846.76584775463</v>
+      </c>
       <c r="F135" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -4086,9 +4114,11 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>44846.76586868056</v>
+      </c>
       <c r="F136" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -4111,9 +4141,11 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
-      </c>
-      <c r="E137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>44846.7692489699</v>
+      </c>
       <c r="F137" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -4136,9 +4168,11 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
-      </c>
-      <c r="E138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>44853.75059837963</v>
+      </c>
       <c r="F138" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -4161,9 +4195,11 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
-      </c>
-      <c r="E139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>44846.76467545139</v>
+      </c>
       <c r="F139" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -4186,9 +4222,11 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>44846.76938770834</v>
+      </c>
       <c r="F140" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -4211,9 +4249,11 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>44853.75081233796</v>
+      </c>
       <c r="F141" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -4236,9 +4276,11 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
-      </c>
-      <c r="E142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>44846.76906002315</v>
+      </c>
       <c r="F142" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -4261,9 +4303,11 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
-      </c>
-      <c r="E143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>44853.74626559028</v>
+      </c>
       <c r="F143" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -4286,9 +4330,11 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
-      </c>
-      <c r="E144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>44853.75041616898</v>
+      </c>
       <c r="F144" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -4311,9 +4357,11 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
-      </c>
-      <c r="E145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>44853.75087840278</v>
+      </c>
       <c r="F145" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -4361,9 +4409,11 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
-      </c>
-      <c r="E147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>44853.74689539352</v>
+      </c>
       <c r="F147" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -4386,9 +4436,11 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
-      </c>
-      <c r="E148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>44853.76293539352</v>
+      </c>
       <c r="F148" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -4411,12 +4463,778 @@
         </is>
       </c>
       <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>44853.75085216435</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>만약에 / 당신이 혹시 살고잇다면 / 여기 보이는 지점들에 / (그것은) / 초록색 / 지도상에서/
+미농림부는 말합니다(USDA)/ 당신은 살고있다고 / Food desert에 / 쉽게 접근이 안됩니다 / 신선한 음식
+[만약 당신이 이 지도에서 녹색인 이 장소들 중 하나에 산다면, USDA는 당신이 신선한 음식에 쉽게 접근할 수 없는 음식 사막에 살고 있다고 말한다.]</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>if you happen to live in any of these spots that are green on this map, The USDA says you are living in a food desert, no easy access to fresh food</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>44853.7620859838</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>새로운 연구는 보여줍니다 / (다음을) / 수백만의 미국인들이 / 씨름하고 잇다, 대처하고 있다 / 이것을
+/ 그리고 / 우리는 ~할 필요가 없었다 / 멀리 가다 / 그것들은 찾기 위해서
+[새로운 조사는 수백만 명의 미국인들이 이 (음식 사막)을 다루고 있고 우리는 그들을 찾기 위해 멀리 갈 필요가 없다는 것을 보여준다.]</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>A new survey shows that millions of americans are dealing with this(food desert) and we didn't have to go too far to find them.</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>44853.75872996528</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>그녀는 산다 / 지역에서 / (그것은) / 미농림부는(USDA)는 부릅니다 / Food desert / (그것은) / 의미하다 / 가장 가까운 상점 /
+ 괜찮은 가격의 과일과 채소를 파는 / 최소한 1마일 덜어져 있다 / 그리고 사람들에게 / 시골에 있는 / 그것은 ~일 수 잇다 / 10마일 떨어져
+["그녀는 미국 농무부(USDA)가 식품 사막이라고 부르는 지역에 살고 있으며, 이는 가장 가까운 상점이 판매되고 있다는 것을 의미한다.
+저렴한 과일과 채소는 적어도 1마일 떨어져 있고 시골 지역의 사람들에게는 10마일 떨어져 있을 수 있습니다."]</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>She lives in an area which the USDA calls a food desert that means the nearest stores selling
+ affordable fruits and vegetables is at least a mile away and for people in rural areas it culd be ten miles away</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>44853.76174239584</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>혹시, 우연히
+[어쩌다]</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Happen to </t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>44853.76267251158</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>장소, 지점, 부분
+[곳]</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>spot</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
         <v>0</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>10월_Nick_Drama Topic 11</t>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>대처, 상대, 겪고 잇다
+[을 처리하다]</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>deal with</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44853.76252673611</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>~할 필요가 없다
+[할 필요가 없다.]</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>don't have to</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44853.76112237269</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>정기적으로
+[정기적으로]</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>on a regular basis</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44853.763448125</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>가격이 괜찮은, 가성비있는, 합리적인
+[저렴한 가격]</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Affordable</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>44853.7625034375</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>최소, 적어도
+[적어도]</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>At least</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>44853.76365935185</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>시골 지역의
+[시골의]</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>44853.76229788194</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>나는 보통 배달음식 먹어
+[나는 보통 배달된 것을 먹는다.]</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>I usually have something delieved</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44853.76363582176</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>옆에 / 옆에
+[옆/옆에]</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>next to / next by</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>44853.76393842194</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>속이 안좋아
+[기분이 좋지 않다.]</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>I don't feel good</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>기분이 안좋아
+[나는 기분이 좋다.]</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>I'm In a good mood</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>44853.76301466435</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>내가 듣기로 / 내가 알기로
+[제가 들은 바로는 / 제가 알기로는]</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>As far as I heard / As far as I know</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>44853.76311136574</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>영어 말하기는 내 강점이 아니야 / 강점의 두가지 표현 f____, s_____ s___
+["영어로 말하는 것은 내 특기가 아니다/
+영어 회화는 나의 강점이 아니다"]</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>English speaking is not my forte / 
+English speaking is not my strong suit</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>선호하다
+[선호하다]</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>prefer</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>제때
+[정시에]</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>on time</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>1</v>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>44853.76368190972</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>~할지 말지
+[하건 말건]</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>whether or not</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>1</v>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>44853.76386444445</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>혹시 주위에 워킹 홀리데이 가본 사람 잇어? 나도 갈 계획이 좀 있어가지고
+[혹시 워킹홀리데이를 다녀온 친구가 있나요? 나는 갈 계획이 있다.]</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>do you happen to have a friend who has been on a working holiday? I have plans to go</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>혹시 중국어 할 줄 알아? 내 친구중에 중국인 있는데 우리가 말이 안통해서
+[혹시 중국어를 할 줄 아세요? 나는 Chanese라는 친구가 있지만, 우리는 대화를 할 수 없다.]</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>do you happen to speak Chinese? I have a friend who is Chanese, but we can't talk.</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>요새 날씨가 좋으니까 한강 근처에서 먹고 마시면서 노는 사람 많이 보이더라
+[날씨가 너무 좋고 따뜻해. 많은 사람들이 한강에서 술과 식사를 하며 시간을 보내는 것을 볼 수 있다.]</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>The weather is so nice and warm. I can spot so many people spending their time drinking and eating by the Han River.</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Nick 기분이 좋지 않은가 봐. 뭐 개인적인 문제로 힘들다는 말이 있기는 하던데?
+[오늘은 닉이 기분이 안 좋은 것 같아. 그가 개인적인 문제를 다루고 있다고 들었어요.]</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Today , I feel like Nick is in a bad mood. I heard he's dealing with some personal issues.</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>자기 문제는 자기 스스로 해결을 해야지. 네가 끼어들 문제는 아닌 거 같은데?
+[그는 자기 문제를 혼자서 해결해야 한다. 네가 끼어들 필요는 없을 것 같아.]</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>He's got to deal with his problem by himself. I don't think you should have to step in.</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>내가 영어를 잘 하면 여기서 이럴 필요가 없지
+[내가 영어를 할 수 있었다면 여기 있을 필요가 없었을 것이다.]</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>I wouldn’t have to be here If I could speak english.</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>백종원 아저씨 가게는 가격이 괜찮아서 인기가 많은듯. 가성비가 좋으니까
+[나는 사람들이 백씨의 가게에 가는 것을 좋아한다고 생각한다. 그것은 그들이 적당한 가격을 제공하기 때문이다.]</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>I think people like to go to Paik's stores. That's because they offer affordable price</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>요즘은 부모님이랑 살고 있다면서? 그래도 끼니 거를 걱정은 없겠다
+[나는 네가 부모님과 함께 산다고 들었어. 적어도 제시간에 식사를 할 수 있다.]</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>I heard you are living with your parents. At least, you can eat on time</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>제가 학우너에서 3시간 거리에 살아서 , 근처에서 자취할까 해요
+[나는 학원에서 3시간 떨어진 곳에 산다. 근처로 이사해야 할지 말지 아직 결정 중이에요.]</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>I live 3 hour away from the academy. I'm still deciding whether or not I should move nearby.</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>10월_Nick_Drama Topic 03</t>
         </is>
       </c>
     </row>

--- a/data/sentence.xlsx
+++ b/data/sentence.xlsx
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>44830.77537652778</v>
+        <v>44854.80028842593</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>44830.77255684027</v>
+        <v>44854.79836377314</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>44830.77296194444</v>
+        <v>44854.79827590278</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4384,9 +4384,11 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
-      </c>
-      <c r="E146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>44854.80039107639</v>
+      </c>
       <c r="F146" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 11</t>
@@ -4603,9 +4605,11 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
-      </c>
-      <c r="E154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>44854.79794304398</v>
+      </c>
       <c r="F154" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 03</t>
@@ -4820,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>44853.76393842194</v>
+        <v>44853.76393842592</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4844,9 +4848,11 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
-      </c>
-      <c r="E163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>44854.80015532408</v>
+      </c>
       <c r="F163" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 03</t>
@@ -4950,9 +4956,11 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
-      </c>
-      <c r="E167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>44854.80043377315</v>
+      </c>
       <c r="F167" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 03</t>
@@ -5029,9 +5037,11 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
-      </c>
-      <c r="E170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44854.8168640162</v>
+      </c>
       <c r="F170" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 03</t>
@@ -5054,9 +5064,11 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
-      </c>
-      <c r="E171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>44854.81373115741</v>
+      </c>
       <c r="F171" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 03</t>
@@ -5079,9 +5091,11 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
-      </c>
-      <c r="E172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44854.80561247686</v>
+      </c>
       <c r="F172" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 03</t>
@@ -5179,9 +5193,11 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
-      </c>
-      <c r="E176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>44854.81234559028</v>
+      </c>
       <c r="F176" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 03</t>
@@ -5229,9 +5245,11 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
-      </c>
-      <c r="E178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>44854.817172476</v>
+      </c>
       <c r="F178" t="inlineStr">
         <is>
           <t>10월_Nick_Drama Topic 03</t>
